--- a/DANUBE_preprocessing_tools/category_mapping/map_reference/associations_bati_usage1_nature_usage_danube.xlsx
+++ b/DANUBE_preprocessing_tools/category_mapping/map_reference/associations_bati_usage1_nature_usage_danube.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t xml:space="preserve">NATURE</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Agricole</t>
   </si>
   <si>
-    <t xml:space="preserve">bâtiment agricole</t>
+    <t xml:space="preserve">BATIMENT AGRICOLE</t>
   </si>
   <si>
     <t xml:space="preserve">Arc de triomphe</t>
@@ -52,10 +52,10 @@
     <t xml:space="preserve">Annexe</t>
   </si>
   <si>
-    <t xml:space="preserve">local non chauffé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bâtiment d'enseignement</t>
+    <t xml:space="preserve">LOCAL NON CHAUFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATIMENT D ENSEIGNEMENT</t>
   </si>
   <si>
     <t xml:space="preserve">Arène ou théâtre antique</t>
@@ -64,7 +64,10 @@
     <t xml:space="preserve">Commercial et services</t>
   </si>
   <si>
-    <t xml:space="preserve">bâtiment industriel</t>
+    <t xml:space="preserve">COMMERCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATIMENT INDUSTRIEL</t>
   </si>
   <si>
     <t xml:space="preserve">Industriel, agricole ou commercial</t>
@@ -73,13 +76,13 @@
     <t xml:space="preserve">Industriel</t>
   </si>
   <si>
-    <t xml:space="preserve">bâtiment de santé</t>
+    <t xml:space="preserve">BATIMENT DE SANTE</t>
   </si>
   <si>
     <t xml:space="preserve">Chapelle</t>
   </si>
   <si>
-    <t xml:space="preserve">bâtiment religieux</t>
+    <t xml:space="preserve">BATIMENT RELIGIEUX</t>
   </si>
   <si>
     <t xml:space="preserve">Religieux</t>
@@ -88,13 +91,13 @@
     <t xml:space="preserve">Château</t>
   </si>
   <si>
-    <t xml:space="preserve">château</t>
+    <t xml:space="preserve">CHATEAU</t>
   </si>
   <si>
     <t xml:space="preserve">Sportif</t>
   </si>
   <si>
-    <t xml:space="preserve">bâtiment sportif</t>
+    <t xml:space="preserve">BATIMENT SPORTIF</t>
   </si>
   <si>
     <t xml:space="preserve">Eglise</t>
@@ -103,7 +106,7 @@
     <t xml:space="preserve">Résidentiel</t>
   </si>
   <si>
-    <t xml:space="preserve">habitat</t>
+    <t xml:space="preserve">HABITAT</t>
   </si>
   <si>
     <t xml:space="preserve">Fort, blockhaus, casemate</t>
@@ -112,16 +115,13 @@
     <t xml:space="preserve">Indifférencié</t>
   </si>
   <si>
-    <t xml:space="preserve">commerce</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monument</t>
   </si>
   <si>
     <t xml:space="preserve">Serre</t>
   </si>
   <si>
-    <t xml:space="preserve">serre agricole</t>
+    <t xml:space="preserve">SERRE AGRICOLE</t>
   </si>
   <si>
     <t xml:space="preserve">Silo</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Tour, donjon</t>
   </si>
   <si>
-    <t xml:space="preserve">tertiaire</t>
+    <t xml:space="preserve">TERTIAIRE</t>
   </si>
   <si>
     <t xml:space="preserve">Tribune</t>
@@ -225,6 +225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FFBF819E"/>
       </patternFill>
@@ -251,12 +257,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -356,12 +356,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -464,7 +464,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,90 +528,92 @@
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" s="12" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,8 +621,8 @@
         <v>31</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="F10" s="15" t="s">
-        <v>27</v>
+      <c r="F10" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +650,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>36</v>
